--- a/lota_xin/xls/equip.xlsx
+++ b/lota_xin/xls/equip.xlsx
@@ -28,7 +28,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "ID", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "ID"}</t>
         </r>
       </text>
     </comment>
@@ -67,7 +67,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "quality", "size" : 5}</t>
+          <t xml:space="preserve">{"type":"uint32", "name" : "quality"}</t>
         </r>
       </text>
     </comment>
@@ -93,7 +93,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Type", "size" : 5}</t>
+          <t xml:space="preserve">{"type":"uint32", "name" : "Type"}</t>
         </r>
       </text>
     </comment>
@@ -150,7 +150,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,9 +160,108 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,7 +274,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,104 +295,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,21 +302,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -319,187 +312,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,16 +506,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -543,6 +545,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -558,35 +569,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,15 +603,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -618,10 +611,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,141 +623,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1088,7 +1078,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1122,602 +1112,602 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>301110001</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>301110002</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>301110003</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>301110004</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>301110005</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>301110006</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>6</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>301110007</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>7</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>301110008</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="2">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:6">
-      <c r="A11" s="2">
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:6">
+      <c r="A11" s="1">
         <v>301110009</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="2">
-        <v>9</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:6">
-      <c r="A12" s="2">
+      <c r="E11" s="1">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:6">
+      <c r="A12" s="1">
         <v>301110010</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>302110001</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>302110002</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>2</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>302110003</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>3</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>302110004</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
         <v>2</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>4</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>302110005</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1">
         <v>2</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>5</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>302110006</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1">
         <v>2</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>6</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>302110007</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1">
         <v>2</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>7</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>302110008</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1">
         <v>2</v>
       </c>
-      <c r="E20" s="2">
-        <v>8</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="E20" s="1">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>302110009</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="E21" s="2">
-        <v>9</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="E21" s="1">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>302110010</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1">
         <v>2</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>10</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>303110001</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1">
         <v>3</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>303110002</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
         <v>3</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>2</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>303110003</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
         <v>3</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>3</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>303110004</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1">
         <v>3</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>4</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>303110005</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1">
         <v>3</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>5</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>303110006</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1">
         <v>3</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>6</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>303110007</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1">
         <v>3</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>7</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>303110008</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1">
         <v>3</v>
       </c>
-      <c r="E30" s="2">
-        <v>8</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="E30" s="1">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>303110009</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1">
         <v>3</v>
       </c>
-      <c r="E31" s="2">
-        <v>9</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="E31" s="1">
+        <v>9</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>303110010</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1">
         <v>3</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>10</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/lota_xin/xls/equip.xlsx
+++ b/lota_xin/xls/equip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18855" windowHeight="8475"/>
+    <workbookView windowWidth="21495" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="equipTable(yes)" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "ID"}</t>
+          <t xml:space="preserve">{"type":"uint32", "name" : "ID"}</t>
         </r>
       </text>
     </comment>
@@ -167,10 +167,63 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,6 +235,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -191,22 +266,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,43 +288,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -265,39 +296,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,187 +312,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,26 +506,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,15 +550,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,30 +571,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -603,6 +579,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -611,10 +611,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,133 +623,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/lota_xin/xls/equip.xlsx
+++ b/lota_xin/xls/equip.xlsx
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>xxx</t>
   </si>
@@ -131,13 +131,19 @@
     <t>desc</t>
   </si>
   <si>
-    <t>res/UI/petIcon/PI001.png</t>
+    <t>res/UI/petIcon/EQ1001.png</t>
   </si>
   <si>
     <t>猫帽子</t>
   </si>
   <si>
+    <t>res/UI/petIcon/EQ2001.png</t>
+  </si>
+  <si>
     <t>猫脚</t>
+  </si>
+  <si>
+    <t>res/UI/petIcon/EQ3001.png</t>
   </si>
 </sst>
 </file>
@@ -159,10 +165,101 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,51 +271,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -228,22 +280,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,51 +302,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -312,19 +318,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,13 +474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,145 +492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,39 +509,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -571,10 +544,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -585,6 +556,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,6 +589,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -611,10 +617,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,133 +629,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,13 +1083,14 @@
   <sheetPr/>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.375"/>
+    <col min="6" max="6" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1328,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1348,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1368,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1388,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1408,7 +1415,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1428,7 +1435,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1448,7 +1455,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1468,7 +1475,7 @@
         <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1488,7 +1495,7 @@
         <v>9</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1508,7 +1515,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1516,7 +1523,7 @@
         <v>303110001</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
@@ -1528,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1536,7 +1543,7 @@
         <v>303110002</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
@@ -1548,7 +1555,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1556,7 +1563,7 @@
         <v>303110003</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
@@ -1568,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1576,7 +1583,7 @@
         <v>303110004</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
@@ -1588,7 +1595,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1596,7 +1603,7 @@
         <v>303110005</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -1608,7 +1615,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1616,7 +1623,7 @@
         <v>303110006</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
@@ -1628,7 +1635,7 @@
         <v>6</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1636,7 +1643,7 @@
         <v>303110007</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
@@ -1648,7 +1655,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1656,7 +1663,7 @@
         <v>303110008</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
@@ -1668,7 +1675,7 @@
         <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1676,7 +1683,7 @@
         <v>303110009</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
@@ -1688,7 +1695,7 @@
         <v>9</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1696,7 +1703,7 @@
         <v>303110010</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
@@ -1708,7 +1715,7 @@
         <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
